--- a/trackingUps.xlsx
+++ b/trackingUps.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5560" yWindow="1820" windowWidth="28040" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5560" yWindow="1780" windowWidth="28040" windowHeight="17440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -428,8 +428,8 @@
   </sheetPr>
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -553,7 +553,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>In transit</t>
+          <t>UnDelivered</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>In transit</t>
+          <t>UnDelivered</t>
         </is>
       </c>
     </row>
@@ -747,7 +747,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>In transit</t>
+          <t>UnDelivered</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>In transit</t>
+          <t>UnDelivered</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,18 @@
     </row>
     <row r="46"/>
     <row r="47"/>
-    <row r="48"/>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1z882wy2d427946120</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>UnDelivered</t>
+        </is>
+      </c>
+    </row>
     <row r="49"/>
     <row r="50"/>
     <row r="51"/>
@@ -1003,7 +1014,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>In transit</t>
+          <t>UnDelivered</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1122,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>In transit</t>
+          <t>UnDelivered</t>
         </is>
       </c>
     </row>
